--- a/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_NonParity_Unfairness_of_sensitive_attribute.xlsx
+++ b/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_NonParity_Unfairness_of_sensitive_attribute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,530 +458,378 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>recall@5</t>
+          <t>Space Size</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1115381581881896</v>
+        <v>0.05197002040378971</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03466197900935249</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.1481696938067857</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09148928744271585</v>
+        <v>0.01705536268536116</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3406458802952664</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>0.02245776236001269</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09021590630055376</v>
+        <v>0.01427145136815535</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09802613086525791</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>0.001331958205801842</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04848100212406578</v>
+        <v>0.01013310166977343</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2389360550280974</v>
+        <v>0.101963809239034</v>
       </c>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03144855112574933</v>
+        <v>0.008912800145703649</v>
       </c>
       <c r="C6" t="n">
-        <v>0.595108766842386</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>8.990428271930033e-05</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01999117282192808</v>
+        <v>0.008047203293254495</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0133260139427595</v>
+        <v>0.004350408855226905</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01876298838128587</v>
+        <v>0.007311603423400612</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2001327889528413</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>8.069308965326721e-05</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01557140448666488</v>
+        <v>0.005802973586865781</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3934192296849346</v>
+        <v>0.5767407500818524</v>
       </c>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kurtosis of Rating</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01395877336709774</v>
+        <v>0.005358651222451687</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3807289347007052</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>0.01833092658566235</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01312553760097312</v>
+        <v>0.003618973501580742</v>
       </c>
       <c r="C11" t="n">
-        <v>0.325076360044653</v>
+        <v>0.2983142984330933</v>
       </c>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Skewness of Rating</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01124489199219959</v>
+        <v>0.001890953539650039</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5466369688135995</v>
+        <v>0.4585073818081193</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.009580569225516313</v>
+        <v>0.001515321374564658</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2941869169148742</v>
+        <v>0.6286945525734116</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.007853284538315866</v>
+        <v>0.0001719220207986659</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1536791896291882</v>
+        <v>0.9524336926838005</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.007787167664919825</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.6764515972005181</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Standart Deviation of Popularity Bias</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.006934877170766688</v>
+        <v>-0.0009943127071677981</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1517215672515376</v>
+        <v>0.9373354927711386</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Standart Deviation of Long Tail Items</t>
+          <t>Average Popularity</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.006862785461846647</v>
+        <v>-0.001256975449823712</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6533428819518179</v>
+        <v>0.8842675970950578</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.005990835261137425</v>
+        <v>-0.00254440192746497</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5120275912924525</v>
+        <v>0.7914862382752441</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.003262863730736018</v>
+        <v>-0.00268112748946912</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5114746574466036</v>
+        <v>0.4259094846364514</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.001947424963401894</v>
+        <v>-0.002978308888150106</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6145801293779971</v>
+        <v>0.195885839863349</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.001380185000599637</v>
+        <v>-0.003415959783388452</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9405436615411686</v>
+        <v>0.2959545477504511</v>
       </c>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0007344207402530884</v>
+        <v>-0.005148427058192379</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9170570536719269</v>
+        <v>0.1511604369399111</v>
       </c>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
+        <v>-0.01061090649216423</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1710900725908534</v>
+      </c>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.001557194255514744</v>
+        <v>-0.01547065963526181</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6679627127152706</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>0.03251809011347717</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.00195462469905568</v>
+        <v>-0.02419644145948776</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8761805000475749</v>
+        <v>0.406946481849992</v>
       </c>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.00247962095317</v>
+        <v>-0.02890051974029652</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6149366104713916</v>
+        <v>0.05251620786016659</v>
       </c>
       <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Kurtosis of Popularity Bias</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-0.002494735416120804</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.6597408877276438</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Kurtosis of Long Tail Items</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-0.003021409970214307</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.8779672929003128</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Standart Deviation of Popularity Bias</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-0.006402817221316316</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.7136567116028585</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-0.01141264070312924</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.7107171202918234</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>giniindex@5</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-0.01289712532937676</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.1088874565666816</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Gini Item</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-0.01373362626802143</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.06370166145246169</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Average Long Tail Items</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-0.02152187288022183</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.1983505691398408</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Density</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-0.0266425254512085</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.1291684985064163</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Number of Ratings</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-0.05682688926016162</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.5283607371385999</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Number of Items</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.06435533664336411</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.08402225086329707</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Number of Users</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.06812891765528954</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.2794395243504116</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>ndcg@5</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-0.1983800782023305</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.02435868872507002</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
